--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Fpr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>14.39928566666667</v>
+        <v>0.6032380000000001</v>
       </c>
       <c r="N2">
-        <v>43.197857</v>
+        <v>1.809714</v>
       </c>
       <c r="O2">
-        <v>0.9549493556612748</v>
+        <v>0.8880288532312676</v>
       </c>
       <c r="P2">
-        <v>0.9549493556612748</v>
+        <v>0.8880288532312675</v>
       </c>
       <c r="Q2">
-        <v>2934.310403164206</v>
+        <v>50.061322711078</v>
       </c>
       <c r="R2">
-        <v>26408.79362847786</v>
+        <v>450.551904399702</v>
       </c>
       <c r="S2">
-        <v>0.6366960187951773</v>
+        <v>0.3986809191200541</v>
       </c>
       <c r="T2">
-        <v>0.6366960187951775</v>
+        <v>0.398680919120054</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,33 +614,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.6032380000000001</v>
+        <v>0.076062</v>
       </c>
       <c r="N3">
-        <v>1.809714</v>
+        <v>0.228186</v>
       </c>
       <c r="O3">
-        <v>0.04000627202944786</v>
+        <v>0.1119711467687325</v>
       </c>
       <c r="P3">
-        <v>0.04000627202944786</v>
+        <v>0.1119711467687325</v>
       </c>
       <c r="Q3">
-        <v>122.9288438301907</v>
+        <v>6.312208992222</v>
       </c>
       <c r="R3">
-        <v>1106.359594471716</v>
+        <v>56.809880929998</v>
       </c>
       <c r="S3">
-        <v>0.02667349213545236</v>
+        <v>0.0502694924227412</v>
       </c>
       <c r="T3">
-        <v>0.02667349213545236</v>
+        <v>0.05026949242274119</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>203.7816646666667</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H4">
-        <v>611.344994</v>
+        <v>189.421768</v>
       </c>
       <c r="I4">
-        <v>0.6667327591988204</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J4">
-        <v>0.6667327591988205</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.076062</v>
+        <v>0.6032380000000001</v>
       </c>
       <c r="N4">
-        <v>0.228186</v>
+        <v>1.809714</v>
       </c>
       <c r="O4">
-        <v>0.005044372309277372</v>
+        <v>0.8880288532312676</v>
       </c>
       <c r="P4">
-        <v>0.005044372309277371</v>
+        <v>0.8880288532312675</v>
       </c>
       <c r="Q4">
-        <v>15.500040977876</v>
+        <v>38.08880282826134</v>
       </c>
       <c r="R4">
-        <v>139.500368800884</v>
+        <v>342.799225454352</v>
       </c>
       <c r="S4">
-        <v>0.003363248268190627</v>
+        <v>0.3033335536776262</v>
       </c>
       <c r="T4">
-        <v>0.003363248268190627</v>
+        <v>0.3033335536776262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,33 +738,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>14.39928566666667</v>
+        <v>0.076062</v>
       </c>
       <c r="N5">
-        <v>43.197857</v>
+        <v>0.228186</v>
       </c>
       <c r="O5">
-        <v>0.9549493556612748</v>
+        <v>0.1119711467687325</v>
       </c>
       <c r="P5">
-        <v>0.9549493556612748</v>
+        <v>0.1119711467687325</v>
       </c>
       <c r="Q5">
-        <v>909.1793829723529</v>
+        <v>4.802599505872</v>
       </c>
       <c r="R5">
-        <v>8182.614446751177</v>
+        <v>43.223395552848</v>
       </c>
       <c r="S5">
-        <v>0.1972766387921772</v>
+        <v>0.03824718727903017</v>
       </c>
       <c r="T5">
-        <v>0.1972766387921772</v>
+        <v>0.03824718727903016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.14058933333334</v>
+        <v>38.719942</v>
       </c>
       <c r="H6">
-        <v>189.421768</v>
+        <v>116.159826</v>
       </c>
       <c r="I6">
-        <v>0.2065833519051582</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J6">
-        <v>0.2065833519051582</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,27 +806,27 @@
         <v>1.809714</v>
       </c>
       <c r="O6">
-        <v>0.04000627202944786</v>
+        <v>0.8880288532312676</v>
       </c>
       <c r="P6">
-        <v>0.04000627202944786</v>
+        <v>0.8880288532312675</v>
       </c>
       <c r="Q6">
-        <v>38.08880282826134</v>
+        <v>23.357340372196</v>
       </c>
       <c r="R6">
-        <v>342.799225454352</v>
+        <v>210.216063349764</v>
       </c>
       <c r="S6">
-        <v>0.008264629773072915</v>
+        <v>0.1860143804335873</v>
       </c>
       <c r="T6">
-        <v>0.008264629773072914</v>
+        <v>0.1860143804335873</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.14058933333334</v>
+        <v>38.719942</v>
       </c>
       <c r="H7">
-        <v>189.421768</v>
+        <v>116.159826</v>
       </c>
       <c r="I7">
-        <v>0.2065833519051582</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J7">
-        <v>0.2065833519051582</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,208 +868,22 @@
         <v>0.228186</v>
       </c>
       <c r="O7">
-        <v>0.005044372309277372</v>
+        <v>0.1119711467687325</v>
       </c>
       <c r="P7">
-        <v>0.005044372309277371</v>
+        <v>0.1119711467687325</v>
       </c>
       <c r="Q7">
-        <v>4.802599505872001</v>
+        <v>2.945116228404</v>
       </c>
       <c r="R7">
-        <v>43.223395552848</v>
+        <v>26.506046055636</v>
       </c>
       <c r="S7">
-        <v>0.001042083339908083</v>
+        <v>0.02345446706696117</v>
       </c>
       <c r="T7">
-        <v>0.001042083339908083</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>38.719942</v>
-      </c>
-      <c r="H8">
-        <v>116.159826</v>
-      </c>
-      <c r="I8">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="J8">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>14.39928566666667</v>
-      </c>
-      <c r="N8">
-        <v>43.197857</v>
-      </c>
-      <c r="O8">
-        <v>0.9549493556612748</v>
-      </c>
-      <c r="P8">
-        <v>0.9549493556612748</v>
-      </c>
-      <c r="Q8">
-        <v>557.5395058547646</v>
-      </c>
-      <c r="R8">
-        <v>5017.855552692881</v>
-      </c>
-      <c r="S8">
-        <v>0.1209766980739202</v>
-      </c>
-      <c r="T8">
-        <v>0.1209766980739202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>38.719942</v>
-      </c>
-      <c r="H9">
-        <v>116.159826</v>
-      </c>
-      <c r="I9">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="J9">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.6032380000000001</v>
-      </c>
-      <c r="N9">
-        <v>1.809714</v>
-      </c>
-      <c r="O9">
-        <v>0.04000627202944786</v>
-      </c>
-      <c r="P9">
-        <v>0.04000627202944786</v>
-      </c>
-      <c r="Q9">
-        <v>23.357340372196</v>
-      </c>
-      <c r="R9">
-        <v>210.216063349764</v>
-      </c>
-      <c r="S9">
-        <v>0.005068150120922581</v>
-      </c>
-      <c r="T9">
-        <v>0.005068150120922581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>38.719942</v>
-      </c>
-      <c r="H10">
-        <v>116.159826</v>
-      </c>
-      <c r="I10">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="J10">
-        <v>0.1266838888960214</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.076062</v>
-      </c>
-      <c r="N10">
-        <v>0.228186</v>
-      </c>
-      <c r="O10">
-        <v>0.005044372309277372</v>
-      </c>
-      <c r="P10">
-        <v>0.005044372309277371</v>
-      </c>
-      <c r="Q10">
-        <v>2.945116228404</v>
-      </c>
-      <c r="R10">
-        <v>26.506046055636</v>
-      </c>
-      <c r="S10">
-        <v>0.0006390407011786615</v>
-      </c>
-      <c r="T10">
-        <v>0.0006390407011786614</v>
+        <v>0.02345446706696116</v>
       </c>
     </row>
   </sheetData>
